--- a/funcionalidades.xlsx
+++ b/funcionalidades.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Login</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>investigar como utilizar solo arduino o raspy, y usar los pines desde base de datos (tabla)</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>HERMAN</t>
+  </si>
+  <si>
+    <t>JP/HERMAN</t>
   </si>
 </sst>
 </file>
@@ -104,12 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,63 +397,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="C2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
